--- a/FM Analysis/pickup_slots.xlsx
+++ b/FM Analysis/pickup_slots.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,11 +465,6 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>actual_load</t>
         </is>
       </c>
@@ -491,9 +486,6 @@
       <c r="F2" t="n">
         <v>47</v>
       </c>
-      <c r="G2" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -514,9 +506,6 @@
       <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -537,9 +526,6 @@
       <c r="F4" t="n">
         <v>128</v>
       </c>
-      <c r="G4" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -558,9 +544,6 @@
       <c r="F5" t="n">
         <v>89</v>
       </c>
-      <c r="G5" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -579,9 +562,6 @@
       <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -600,9 +580,6 @@
       <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -623,9 +600,6 @@
       <c r="F8" t="n">
         <v>141</v>
       </c>
-      <c r="G8" t="n">
-        <v>141</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -646,9 +620,6 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -667,9 +638,6 @@
       <c r="F10" t="n">
         <v>35</v>
       </c>
-      <c r="G10" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -688,9 +656,6 @@
       <c r="F11" t="n">
         <v>154</v>
       </c>
-      <c r="G11" t="n">
-        <v>154</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -711,9 +676,6 @@
       <c r="F12" t="n">
         <v>69</v>
       </c>
-      <c r="G12" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -732,9 +694,6 @@
       <c r="F13" t="n">
         <v>38</v>
       </c>
-      <c r="G13" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -755,9 +714,6 @@
       <c r="F14" t="n">
         <v>243</v>
       </c>
-      <c r="G14" t="n">
-        <v>243</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -778,9 +734,6 @@
       <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -801,9 +754,6 @@
       <c r="F16" t="n">
         <v>286</v>
       </c>
-      <c r="G16" t="n">
-        <v>286</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -824,9 +774,6 @@
       <c r="F17" t="n">
         <v>37</v>
       </c>
-      <c r="G17" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -845,9 +792,6 @@
       <c r="F18" t="n">
         <v>8</v>
       </c>
-      <c r="G18" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -866,9 +810,6 @@
       <c r="F19" t="n">
         <v>531</v>
       </c>
-      <c r="G19" t="n">
-        <v>531</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -887,9 +828,6 @@
       <c r="F20" t="n">
         <v>153</v>
       </c>
-      <c r="G20" t="n">
-        <v>153</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -910,9 +848,6 @@
       <c r="F21" t="n">
         <v>70</v>
       </c>
-      <c r="G21" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -931,9 +866,6 @@
       <c r="F22" t="n">
         <v>59</v>
       </c>
-      <c r="G22" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -954,9 +886,6 @@
       <c r="F23" t="n">
         <v>16</v>
       </c>
-      <c r="G23" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -975,9 +904,6 @@
       <c r="F24" t="n">
         <v>56</v>
       </c>
-      <c r="G24" t="n">
-        <v>56</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -996,9 +922,6 @@
       <c r="F25" t="n">
         <v>125</v>
       </c>
-      <c r="G25" t="n">
-        <v>125</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1017,9 +940,6 @@
       <c r="F26" t="n">
         <v>7</v>
       </c>
-      <c r="G26" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1038,9 +958,6 @@
       <c r="F27" t="n">
         <v>97</v>
       </c>
-      <c r="G27" t="n">
-        <v>97</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1059,9 +976,6 @@
       <c r="F28" t="n">
         <v>240</v>
       </c>
-      <c r="G28" t="n">
-        <v>240</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1080,9 +994,6 @@
       <c r="F29" t="n">
         <v>16</v>
       </c>
-      <c r="G29" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1101,9 +1012,6 @@
       <c r="F30" t="n">
         <v>165</v>
       </c>
-      <c r="G30" t="n">
-        <v>165</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1122,9 +1030,6 @@
       <c r="F31" t="n">
         <v>11</v>
       </c>
-      <c r="G31" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1145,9 +1050,6 @@
       <c r="F32" t="n">
         <v>128</v>
       </c>
-      <c r="G32" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1168,9 +1070,6 @@
       <c r="F33" t="n">
         <v>240</v>
       </c>
-      <c r="G33" t="n">
-        <v>240</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1191,9 +1090,6 @@
       <c r="F34" t="n">
         <v>342</v>
       </c>
-      <c r="G34" t="n">
-        <v>342</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1214,9 +1110,6 @@
       <c r="F35" t="n">
         <v>229</v>
       </c>
-      <c r="G35" t="n">
-        <v>229</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1235,9 +1128,6 @@
       <c r="F36" t="n">
         <v>145</v>
       </c>
-      <c r="G36" t="n">
-        <v>145</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1256,9 +1146,6 @@
       <c r="F37" t="n">
         <v>188</v>
       </c>
-      <c r="G37" t="n">
-        <v>188</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1279,9 +1166,6 @@
       <c r="F38" t="n">
         <v>18</v>
       </c>
-      <c r="G38" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1300,9 +1184,6 @@
       <c r="F39" t="n">
         <v>22</v>
       </c>
-      <c r="G39" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1321,9 +1202,6 @@
       <c r="F40" t="n">
         <v>3</v>
       </c>
-      <c r="G40" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1344,9 +1222,6 @@
       <c r="F41" t="n">
         <v>70</v>
       </c>
-      <c r="G41" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1365,9 +1240,6 @@
       <c r="F42" t="n">
         <v>59</v>
       </c>
-      <c r="G42" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1388,9 +1260,6 @@
       <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1409,9 +1278,6 @@
       <c r="F44" t="n">
         <v>149</v>
       </c>
-      <c r="G44" t="n">
-        <v>149</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1430,9 +1296,6 @@
       <c r="F45" t="n">
         <v>132</v>
       </c>
-      <c r="G45" t="n">
-        <v>132</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1453,9 +1316,6 @@
       <c r="F46" t="n">
         <v>81</v>
       </c>
-      <c r="G46" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1474,9 +1334,6 @@
       <c r="F47" t="n">
         <v>117</v>
       </c>
-      <c r="G47" t="n">
-        <v>117</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1495,9 +1352,6 @@
       <c r="F48" t="n">
         <v>52</v>
       </c>
-      <c r="G48" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1516,9 +1370,6 @@
       <c r="F49" t="n">
         <v>46</v>
       </c>
-      <c r="G49" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1537,9 +1388,6 @@
       <c r="F50" t="n">
         <v>63</v>
       </c>
-      <c r="G50" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1558,9 +1406,6 @@
       <c r="F51" t="n">
         <v>69</v>
       </c>
-      <c r="G51" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1579,9 +1424,6 @@
       <c r="F52" t="n">
         <v>138</v>
       </c>
-      <c r="G52" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1602,9 +1444,6 @@
       <c r="F53" t="n">
         <v>40</v>
       </c>
-      <c r="G53" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1625,9 +1464,6 @@
       <c r="F54" t="n">
         <v>1</v>
       </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1646,9 +1482,6 @@
       <c r="F55" t="n">
         <v>87</v>
       </c>
-      <c r="G55" t="n">
-        <v>87</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1669,9 +1502,6 @@
       <c r="F56" t="n">
         <v>70</v>
       </c>
-      <c r="G56" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1690,9 +1520,6 @@
       <c r="F57" t="n">
         <v>16</v>
       </c>
-      <c r="G57" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1713,9 +1540,6 @@
       <c r="F58" t="n">
         <v>163</v>
       </c>
-      <c r="G58" t="n">
-        <v>163</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1734,9 +1558,6 @@
       <c r="F59" t="n">
         <v>1</v>
       </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1757,9 +1578,6 @@
       <c r="F60" t="n">
         <v>3</v>
       </c>
-      <c r="G60" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1778,9 +1596,6 @@
       <c r="F61" t="n">
         <v>1</v>
       </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1799,9 +1614,6 @@
       <c r="F62" t="n">
         <v>76</v>
       </c>
-      <c r="G62" t="n">
-        <v>76</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1820,9 +1632,6 @@
       <c r="F63" t="n">
         <v>140</v>
       </c>
-      <c r="G63" t="n">
-        <v>140</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1841,9 +1650,6 @@
       <c r="F64" t="n">
         <v>138</v>
       </c>
-      <c r="G64" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1862,9 +1668,6 @@
       <c r="F65" t="n">
         <v>101</v>
       </c>
-      <c r="G65" t="n">
-        <v>101</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1883,9 +1686,6 @@
       <c r="F66" t="n">
         <v>109</v>
       </c>
-      <c r="G66" t="n">
-        <v>109</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1906,9 +1706,6 @@
       <c r="F67" t="n">
         <v>165</v>
       </c>
-      <c r="G67" t="n">
-        <v>165</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1927,9 +1724,6 @@
       <c r="F68" t="n">
         <v>210</v>
       </c>
-      <c r="G68" t="n">
-        <v>210</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1948,9 +1742,6 @@
       <c r="F69" t="n">
         <v>5</v>
       </c>
-      <c r="G69" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1969,9 +1760,6 @@
       <c r="F70" t="n">
         <v>154</v>
       </c>
-      <c r="G70" t="n">
-        <v>154</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1990,9 +1778,6 @@
       <c r="F71" t="n">
         <v>1</v>
       </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2011,9 +1796,6 @@
       <c r="F72" t="n">
         <v>172</v>
       </c>
-      <c r="G72" t="n">
-        <v>172</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2032,9 +1814,6 @@
       <c r="F73" t="n">
         <v>26</v>
       </c>
-      <c r="G73" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2055,9 +1834,6 @@
       <c r="F74" t="n">
         <v>123</v>
       </c>
-      <c r="G74" t="n">
-        <v>123</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2076,9 +1852,6 @@
       <c r="F75" t="n">
         <v>114</v>
       </c>
-      <c r="G75" t="n">
-        <v>114</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2097,9 +1870,6 @@
       <c r="F76" t="n">
         <v>13</v>
       </c>
-      <c r="G76" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2118,9 +1888,6 @@
       <c r="F77" t="n">
         <v>49</v>
       </c>
-      <c r="G77" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2139,9 +1906,6 @@
       <c r="F78" t="n">
         <v>27</v>
       </c>
-      <c r="G78" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2160,9 +1924,6 @@
       <c r="F79" t="n">
         <v>21</v>
       </c>
-      <c r="G79" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2183,9 +1944,6 @@
       <c r="F80" t="n">
         <v>383</v>
       </c>
-      <c r="G80" t="n">
-        <v>383</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2204,9 +1962,6 @@
       <c r="F81" t="n">
         <v>297</v>
       </c>
-      <c r="G81" t="n">
-        <v>297</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2227,9 +1982,6 @@
       <c r="F82" t="n">
         <v>84</v>
       </c>
-      <c r="G82" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2248,9 +2000,6 @@
       <c r="F83" t="n">
         <v>62</v>
       </c>
-      <c r="G83" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2269,9 +2018,6 @@
       <c r="F84" t="n">
         <v>233</v>
       </c>
-      <c r="G84" t="n">
-        <v>233</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2290,9 +2036,6 @@
       <c r="F85" t="n">
         <v>24</v>
       </c>
-      <c r="G85" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2311,9 +2054,6 @@
       <c r="F86" t="n">
         <v>45</v>
       </c>
-      <c r="G86" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2332,9 +2072,6 @@
       <c r="F87" t="n">
         <v>45</v>
       </c>
-      <c r="G87" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2353,9 +2090,6 @@
       <c r="F88" t="n">
         <v>112</v>
       </c>
-      <c r="G88" t="n">
-        <v>112</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2374,9 +2108,6 @@
       <c r="F89" t="n">
         <v>2</v>
       </c>
-      <c r="G89" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2397,9 +2128,6 @@
       <c r="F90" t="n">
         <v>39</v>
       </c>
-      <c r="G90" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2418,9 +2146,6 @@
       <c r="F91" t="n">
         <v>34</v>
       </c>
-      <c r="G91" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2439,9 +2164,6 @@
       <c r="F92" t="n">
         <v>3</v>
       </c>
-      <c r="G92" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2462,9 +2184,6 @@
       <c r="F93" t="n">
         <v>30</v>
       </c>
-      <c r="G93" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2483,9 +2202,6 @@
       <c r="F94" t="n">
         <v>22</v>
       </c>
-      <c r="G94" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2504,9 +2220,6 @@
       <c r="F95" t="n">
         <v>53</v>
       </c>
-      <c r="G95" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2525,9 +2238,6 @@
       <c r="F96" t="n">
         <v>7</v>
       </c>
-      <c r="G96" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2548,9 +2258,6 @@
       <c r="F97" t="n">
         <v>239</v>
       </c>
-      <c r="G97" t="n">
-        <v>239</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2569,9 +2276,6 @@
       <c r="F98" t="n">
         <v>7</v>
       </c>
-      <c r="G98" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2590,9 +2294,6 @@
       <c r="F99" t="n">
         <v>67</v>
       </c>
-      <c r="G99" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2613,9 +2314,6 @@
       <c r="F100" t="n">
         <v>2</v>
       </c>
-      <c r="G100" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2634,9 +2332,6 @@
       <c r="F101" t="n">
         <v>506</v>
       </c>
-      <c r="G101" t="n">
-        <v>506</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2657,9 +2352,6 @@
       <c r="F102" t="n">
         <v>500</v>
       </c>
-      <c r="G102" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2678,9 +2370,6 @@
       <c r="F103" t="n">
         <v>4</v>
       </c>
-      <c r="G103" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2699,9 +2388,6 @@
       <c r="F104" t="n">
         <v>7</v>
       </c>
-      <c r="G104" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2722,9 +2408,6 @@
       <c r="F105" t="n">
         <v>1</v>
       </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2743,9 +2426,6 @@
       <c r="F106" t="n">
         <v>17</v>
       </c>
-      <c r="G106" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2766,9 +2446,6 @@
       <c r="F107" t="n">
         <v>1</v>
       </c>
-      <c r="G107" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2787,9 +2464,6 @@
       <c r="F108" t="n">
         <v>326</v>
       </c>
-      <c r="G108" t="n">
-        <v>326</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2808,9 +2482,6 @@
       <c r="F109" t="n">
         <v>251</v>
       </c>
-      <c r="G109" t="n">
-        <v>251</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2829,9 +2500,6 @@
       <c r="F110" t="n">
         <v>30</v>
       </c>
-      <c r="G110" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2852,9 +2520,6 @@
       <c r="F111" t="n">
         <v>105</v>
       </c>
-      <c r="G111" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2873,9 +2538,6 @@
       <c r="F112" t="n">
         <v>71</v>
       </c>
-      <c r="G112" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2894,9 +2556,6 @@
       <c r="F113" t="n">
         <v>28</v>
       </c>
-      <c r="G113" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2915,9 +2574,6 @@
       <c r="F114" t="n">
         <v>108</v>
       </c>
-      <c r="G114" t="n">
-        <v>108</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2938,9 +2594,6 @@
       <c r="F115" t="n">
         <v>1</v>
       </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2959,9 +2612,6 @@
       <c r="F116" t="n">
         <v>6</v>
       </c>
-      <c r="G116" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2980,9 +2630,6 @@
       <c r="F117" t="n">
         <v>52</v>
       </c>
-      <c r="G117" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3003,9 +2650,6 @@
       <c r="F118" t="n">
         <v>127</v>
       </c>
-      <c r="G118" t="n">
-        <v>127</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3024,9 +2668,6 @@
       <c r="F119" t="n">
         <v>6</v>
       </c>
-      <c r="G119" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3045,9 +2686,6 @@
       <c r="F120" t="n">
         <v>71</v>
       </c>
-      <c r="G120" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3066,9 +2704,6 @@
       <c r="F121" t="n">
         <v>31</v>
       </c>
-      <c r="G121" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3087,9 +2722,6 @@
       <c r="F122" t="n">
         <v>3</v>
       </c>
-      <c r="G122" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3108,9 +2740,6 @@
       <c r="F123" t="n">
         <v>108</v>
       </c>
-      <c r="G123" t="n">
-        <v>108</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3129,9 +2758,6 @@
       <c r="F124" t="n">
         <v>252</v>
       </c>
-      <c r="G124" t="n">
-        <v>252</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3150,9 +2776,6 @@
       <c r="F125" t="n">
         <v>40</v>
       </c>
-      <c r="G125" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3173,9 +2796,6 @@
       <c r="F126" t="n">
         <v>37</v>
       </c>
-      <c r="G126" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3194,9 +2814,6 @@
       <c r="F127" t="n">
         <v>40</v>
       </c>
-      <c r="G127" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3215,9 +2832,6 @@
       <c r="F128" t="n">
         <v>132</v>
       </c>
-      <c r="G128" t="n">
-        <v>132</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3236,9 +2850,6 @@
       <c r="F129" t="n">
         <v>68</v>
       </c>
-      <c r="G129" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3257,9 +2868,6 @@
       <c r="F130" t="n">
         <v>75</v>
       </c>
-      <c r="G130" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3278,9 +2886,6 @@
       <c r="F131" t="n">
         <v>165</v>
       </c>
-      <c r="G131" t="n">
-        <v>165</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3299,9 +2904,6 @@
       <c r="F132" t="n">
         <v>7</v>
       </c>
-      <c r="G132" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3320,9 +2922,6 @@
       <c r="F133" t="n">
         <v>23</v>
       </c>
-      <c r="G133" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3341,9 +2940,6 @@
       <c r="F134" t="n">
         <v>36</v>
       </c>
-      <c r="G134" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3362,9 +2958,6 @@
       <c r="F135" t="n">
         <v>6</v>
       </c>
-      <c r="G135" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3383,9 +2976,6 @@
       <c r="F136" t="n">
         <v>2</v>
       </c>
-      <c r="G136" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3406,9 +2996,6 @@
       <c r="F137" t="n">
         <v>2</v>
       </c>
-      <c r="G137" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3427,9 +3014,6 @@
       <c r="F138" t="n">
         <v>82</v>
       </c>
-      <c r="G138" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3448,9 +3032,6 @@
       <c r="F139" t="n">
         <v>23</v>
       </c>
-      <c r="G139" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3471,9 +3052,6 @@
       <c r="F140" t="n">
         <v>315</v>
       </c>
-      <c r="G140" t="n">
-        <v>315</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3492,9 +3070,6 @@
       <c r="F141" t="n">
         <v>1</v>
       </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3513,9 +3088,6 @@
       <c r="F142" t="n">
         <v>77</v>
       </c>
-      <c r="G142" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3534,9 +3106,6 @@
       <c r="F143" t="n">
         <v>33</v>
       </c>
-      <c r="G143" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3557,9 +3126,6 @@
       <c r="F144" t="n">
         <v>260</v>
       </c>
-      <c r="G144" t="n">
-        <v>260</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3578,9 +3144,6 @@
       <c r="F145" t="n">
         <v>1</v>
       </c>
-      <c r="G145" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3599,9 +3162,6 @@
       <c r="F146" t="n">
         <v>1</v>
       </c>
-      <c r="G146" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3620,9 +3180,6 @@
       <c r="F147" t="n">
         <v>12</v>
       </c>
-      <c r="G147" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3641,9 +3198,6 @@
       <c r="F148" t="n">
         <v>104</v>
       </c>
-      <c r="G148" t="n">
-        <v>104</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3662,9 +3216,6 @@
       <c r="F149" t="n">
         <v>6</v>
       </c>
-      <c r="G149" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3683,9 +3234,6 @@
       <c r="F150" t="n">
         <v>10</v>
       </c>
-      <c r="G150" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3704,9 +3252,6 @@
       <c r="F151" t="n">
         <v>42</v>
       </c>
-      <c r="G151" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3725,9 +3270,6 @@
       <c r="F152" t="n">
         <v>1</v>
       </c>
-      <c r="G152" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3746,9 +3288,6 @@
       <c r="F153" t="n">
         <v>57</v>
       </c>
-      <c r="G153" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3767,9 +3306,6 @@
       <c r="F154" t="n">
         <v>9</v>
       </c>
-      <c r="G154" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3788,9 +3324,6 @@
       <c r="F155" t="n">
         <v>119</v>
       </c>
-      <c r="G155" t="n">
-        <v>119</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3809,9 +3342,6 @@
       <c r="F156" t="n">
         <v>137</v>
       </c>
-      <c r="G156" t="n">
-        <v>137</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3832,9 +3362,6 @@
       <c r="F157" t="n">
         <v>8</v>
       </c>
-      <c r="G157" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3853,9 +3380,6 @@
       <c r="F158" t="n">
         <v>147</v>
       </c>
-      <c r="G158" t="n">
-        <v>147</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3874,9 +3398,6 @@
       <c r="F159" t="n">
         <v>11</v>
       </c>
-      <c r="G159" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3895,9 +3416,6 @@
       <c r="F160" t="n">
         <v>16</v>
       </c>
-      <c r="G160" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3916,9 +3434,6 @@
       <c r="F161" t="n">
         <v>11</v>
       </c>
-      <c r="G161" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3939,9 +3454,6 @@
       <c r="F162" t="n">
         <v>19</v>
       </c>
-      <c r="G162" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3960,9 +3472,6 @@
       <c r="F163" t="n">
         <v>491</v>
       </c>
-      <c r="G163" t="n">
-        <v>491</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3983,9 +3492,6 @@
       <c r="F164" t="n">
         <v>66</v>
       </c>
-      <c r="G164" t="n">
-        <v>66</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4004,9 +3510,6 @@
       <c r="F165" t="n">
         <v>174</v>
       </c>
-      <c r="G165" t="n">
-        <v>174</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4025,9 +3528,6 @@
       <c r="F166" t="n">
         <v>33</v>
       </c>
-      <c r="G166" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4048,9 +3548,6 @@
       <c r="F167" t="n">
         <v>57</v>
       </c>
-      <c r="G167" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4069,9 +3566,6 @@
       <c r="F168" t="n">
         <v>6</v>
       </c>
-      <c r="G168" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4092,9 +3586,6 @@
       <c r="F169" t="n">
         <v>267</v>
       </c>
-      <c r="G169" t="n">
-        <v>267</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4113,9 +3604,6 @@
       <c r="F170" t="n">
         <v>124</v>
       </c>
-      <c r="G170" t="n">
-        <v>124</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4136,9 +3624,6 @@
       <c r="F171" t="n">
         <v>96</v>
       </c>
-      <c r="G171" t="n">
-        <v>96</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4159,9 +3644,6 @@
       <c r="F172" t="n">
         <v>1</v>
       </c>
-      <c r="G172" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4182,9 +3664,6 @@
       <c r="F173" t="n">
         <v>1</v>
       </c>
-      <c r="G173" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4205,9 +3684,6 @@
       <c r="F174" t="n">
         <v>707</v>
       </c>
-      <c r="G174" t="n">
-        <v>707</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4226,9 +3702,6 @@
       <c r="F175" t="n">
         <v>247</v>
       </c>
-      <c r="G175" t="n">
-        <v>247</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4247,9 +3720,6 @@
       <c r="F176" t="n">
         <v>67</v>
       </c>
-      <c r="G176" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4268,9 +3738,6 @@
       <c r="F177" t="n">
         <v>2</v>
       </c>
-      <c r="G177" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4291,9 +3758,6 @@
       <c r="F178" t="n">
         <v>40</v>
       </c>
-      <c r="G178" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4314,9 +3778,6 @@
       <c r="F179" t="n">
         <v>1</v>
       </c>
-      <c r="G179" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4337,9 +3798,6 @@
       <c r="F180" t="n">
         <v>268</v>
       </c>
-      <c r="G180" t="n">
-        <v>268</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4358,9 +3816,6 @@
       <c r="F181" t="n">
         <v>98</v>
       </c>
-      <c r="G181" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4379,9 +3834,6 @@
       <c r="F182" t="n">
         <v>31</v>
       </c>
-      <c r="G182" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4400,9 +3852,6 @@
       <c r="F183" t="n">
         <v>11</v>
       </c>
-      <c r="G183" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4421,9 +3870,6 @@
       <c r="F184" t="n">
         <v>19</v>
       </c>
-      <c r="G184" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4442,9 +3888,6 @@
       <c r="F185" t="n">
         <v>4</v>
       </c>
-      <c r="G185" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4463,9 +3906,6 @@
       <c r="F186" t="n">
         <v>3</v>
       </c>
-      <c r="G186" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4484,9 +3924,6 @@
       <c r="F187" t="n">
         <v>14</v>
       </c>
-      <c r="G187" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4505,9 +3942,6 @@
       <c r="F188" t="n">
         <v>1</v>
       </c>
-      <c r="G188" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4526,9 +3960,6 @@
       <c r="F189" t="n">
         <v>50</v>
       </c>
-      <c r="G189" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4547,9 +3978,6 @@
       <c r="F190" t="n">
         <v>1</v>
       </c>
-      <c r="G190" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4568,9 +3996,6 @@
       <c r="F191" t="n">
         <v>38</v>
       </c>
-      <c r="G191" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4589,9 +4014,6 @@
       <c r="F192" t="n">
         <v>4</v>
       </c>
-      <c r="G192" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4610,9 +4032,6 @@
       <c r="F193" t="n">
         <v>213</v>
       </c>
-      <c r="G193" t="n">
-        <v>213</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4631,9 +4050,6 @@
       <c r="F194" t="n">
         <v>10</v>
       </c>
-      <c r="G194" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4652,9 +4068,6 @@
       <c r="F195" t="n">
         <v>12</v>
       </c>
-      <c r="G195" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4675,9 +4088,6 @@
       <c r="F196" t="n">
         <v>2</v>
       </c>
-      <c r="G196" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4696,9 +4106,6 @@
       <c r="F197" t="n">
         <v>45</v>
       </c>
-      <c r="G197" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4717,9 +4124,6 @@
       <c r="F198" t="n">
         <v>15</v>
       </c>
-      <c r="G198" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4738,9 +4142,6 @@
       <c r="F199" t="n">
         <v>8</v>
       </c>
-      <c r="G199" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4759,9 +4160,6 @@
       <c r="F200" t="n">
         <v>35</v>
       </c>
-      <c r="G200" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4780,9 +4178,6 @@
       <c r="F201" t="n">
         <v>8</v>
       </c>
-      <c r="G201" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4801,9 +4196,6 @@
       <c r="F202" t="n">
         <v>18</v>
       </c>
-      <c r="G202" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4822,9 +4214,6 @@
       <c r="F203" t="n">
         <v>16</v>
       </c>
-      <c r="G203" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4843,9 +4232,6 @@
       <c r="F204" t="n">
         <v>23</v>
       </c>
-      <c r="G204" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4864,9 +4250,6 @@
       <c r="F205" t="n">
         <v>14</v>
       </c>
-      <c r="G205" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4885,9 +4268,6 @@
       <c r="F206" t="n">
         <v>17</v>
       </c>
-      <c r="G206" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4906,9 +4286,6 @@
       <c r="F207" t="n">
         <v>4</v>
       </c>
-      <c r="G207" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4927,9 +4304,6 @@
       <c r="F208" t="n">
         <v>17</v>
       </c>
-      <c r="G208" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4948,9 +4322,6 @@
       <c r="F209" t="n">
         <v>36</v>
       </c>
-      <c r="G209" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4969,9 +4340,6 @@
       <c r="F210" t="n">
         <v>32</v>
       </c>
-      <c r="G210" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4990,9 +4358,6 @@
       <c r="F211" t="n">
         <v>3</v>
       </c>
-      <c r="G211" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5011,9 +4376,6 @@
       <c r="F212" t="n">
         <v>4</v>
       </c>
-      <c r="G212" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5032,9 +4394,6 @@
       <c r="F213" t="n">
         <v>30</v>
       </c>
-      <c r="G213" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5053,9 +4412,6 @@
       <c r="F214" t="n">
         <v>15</v>
       </c>
-      <c r="G214" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5074,9 +4430,6 @@
       <c r="F215" t="n">
         <v>62</v>
       </c>
-      <c r="G215" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5095,9 +4448,6 @@
       <c r="F216" t="n">
         <v>3</v>
       </c>
-      <c r="G216" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5116,9 +4466,6 @@
       <c r="F217" t="n">
         <v>38</v>
       </c>
-      <c r="G217" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5137,9 +4484,6 @@
       <c r="F218" t="n">
         <v>126</v>
       </c>
-      <c r="G218" t="n">
-        <v>126</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5158,9 +4502,6 @@
       <c r="F219" t="n">
         <v>12</v>
       </c>
-      <c r="G219" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5177,9 +4518,6 @@
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>2</v>
-      </c>
-      <c r="G220" t="n">
         <v>2</v>
       </c>
     </row>
